--- a/Assignment on GoLang.xlsx
+++ b/Assignment on GoLang.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Schedules" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Session Updates" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t xml:space="preserve">Assignment</t>
   </si>
@@ -184,16 +186,276 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Product
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">          getConfiguration()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">           Laptop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           SmartPhones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go modules</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">module name : </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">users</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">      Username - admin </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      Password – admin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      valid user entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      credentials do not match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session Management:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SignUp Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                List of Products – only for valid cookie or token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Forbidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{} , []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{  [],[],[] }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ {} {} {} ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clarifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Testing Framework, Writing Test Cases in Go, Go Lambda Functions / Abstractions</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Go Framework :  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gin Gonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview of Databases:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to NoSQL – MongoDB / Postgres / Atlas; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Microservices:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build API’s with REST and Protobuf gRPC / Transports, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Microservices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go Micro / Go Kit Framework Life Cycle; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Web APIs using GO Micro, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Management and Microservices, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO Build, GO Concurrency,  GO Routines, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channels, Sync and Synchronization,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endpoints in GO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messaging Framework:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messaging with RabbitMQ worker, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-process communication,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swagger documentation – GO Swagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated testing of GO Apps with HTTP / New Relic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Testing and integration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Engineering Discipline and Performance Testing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement CI/CD with Jenkins, Performance Testing with Kibana / Elasticsearch / Grafana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Deployment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rancher and Kubernetes, Deploy GO MS on GCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 PM TO 1 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 pm to 5  AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,6 +480,29 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -271,7 +556,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,14 +581,58 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -369,21 +698,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,9 +778,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -464,4 +889,276 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:F32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.11"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="21.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="n">
+        <v>44537</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>